--- a/data/trans_orig/P04D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>19407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11241</v>
+        <v>11125</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30795</v>
+        <v>31196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04438768525148078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02571056091284504</v>
+        <v>0.02544534830694448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07043553264069791</v>
+        <v>0.07135329017323799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -764,19 +764,19 @@
         <v>11648</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5022</v>
+        <v>5824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20873</v>
+        <v>21529</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0370422429739102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01596914235005207</v>
+        <v>0.0185211717014579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06637710517160804</v>
+        <v>0.06846352739797736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -785,19 +785,19 @@
         <v>31055</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20962</v>
+        <v>20432</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46208</v>
+        <v>44862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04131476650449831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02788689087083396</v>
+        <v>0.02718283798160909</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06147452442900928</v>
+        <v>0.05968389221109349</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>205740</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>185386</v>
+        <v>185068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>229273</v>
+        <v>227039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4705731160339561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4240192072019174</v>
+        <v>0.4232922896110357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.524399535572054</v>
+        <v>0.519289498716924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -835,19 +835,19 @@
         <v>148375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129267</v>
+        <v>130218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166340</v>
+        <v>168161</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4718491566555984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4110852708445841</v>
+        <v>0.4141089514666215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5289812947325141</v>
+        <v>0.534772418515261</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>322</v>
@@ -856,19 +856,19 @@
         <v>354115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325220</v>
+        <v>326948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>385153</v>
+        <v>383874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.471106939458058</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4326659698165912</v>
+        <v>0.4349646298642227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5123996406222107</v>
+        <v>0.5106988587585752</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>212064</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>190685</v>
+        <v>191068</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>233679</v>
+        <v>234319</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4850391987145631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4361395065377888</v>
+        <v>0.4370147708229419</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5344771702981457</v>
+        <v>0.5359411636678809</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>140</v>
@@ -906,19 +906,19 @@
         <v>154431</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>134696</v>
+        <v>134987</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>172773</v>
+        <v>172907</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4911086003704914</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4283477023854464</v>
+        <v>0.4292743419397998</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5494365073074842</v>
+        <v>0.549865078480639</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>340</v>
@@ -927,19 +927,19 @@
         <v>366496</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>333182</v>
+        <v>338697</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>394511</v>
+        <v>395009</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4875782940374436</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4432580241042926</v>
+        <v>0.4505951864320272</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5248492832492299</v>
+        <v>0.5255118655292028</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>8454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3753</v>
+        <v>3777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17075</v>
+        <v>16861</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0201852404573948</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008960823796652593</v>
+        <v>0.009019524333796346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04077231742526209</v>
+        <v>0.04026041428256392</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -1052,19 +1052,19 @@
         <v>16498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10008</v>
+        <v>10237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26851</v>
+        <v>25867</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04880826619287679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02960773802418101</v>
+        <v>0.03028563080631688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07943684413969009</v>
+        <v>0.07652658939868866</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -1073,19 +1073,19 @@
         <v>24951</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15816</v>
+        <v>15633</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36261</v>
+        <v>35460</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03296906363662572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02089845927530392</v>
+        <v>0.02065710382292153</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04791261908626579</v>
+        <v>0.04685428542230277</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>227915</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>205323</v>
+        <v>203020</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>250827</v>
+        <v>249597</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5442129651068145</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4902675762151845</v>
+        <v>0.484770140893566</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5989237431830386</v>
+        <v>0.5959846040171766</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>173</v>
@@ -1123,19 +1123,19 @@
         <v>192433</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>173189</v>
+        <v>171425</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>211819</v>
+        <v>210443</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5693088333656919</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5123757182060904</v>
+        <v>0.5071589911639518</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6266619114484967</v>
+        <v>0.6225932790012458</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>374</v>
@@ -1144,19 +1144,19 @@
         <v>420347</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>389329</v>
+        <v>389632</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>448854</v>
+        <v>447674</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.555421463653251</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5144355405371575</v>
+        <v>0.514835984410358</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5930878970821332</v>
+        <v>0.5915287876419033</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>182429</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>159804</v>
+        <v>160281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204915</v>
+        <v>207002</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4356017944357907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3815790913637919</v>
+        <v>0.3827170368977424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4892948528338786</v>
+        <v>0.4942772485764747</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1194,19 +1194,19 @@
         <v>129081</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110292</v>
+        <v>111112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146919</v>
+        <v>149317</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3818829004414313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3262959966419373</v>
+        <v>0.328723694531789</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4346578434031526</v>
+        <v>0.4417509651226413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -1215,19 +1215,19 @@
         <v>311509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>284463</v>
+        <v>285556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>345027</v>
+        <v>341291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4116094727101233</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3758717041900215</v>
+        <v>0.3773158083332352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.455897246478606</v>
+        <v>0.4509614294434696</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>24499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15572</v>
+        <v>15494</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37142</v>
+        <v>38320</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03892397229053191</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02474021332862772</v>
+        <v>0.02461721250595719</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05901041351245429</v>
+        <v>0.06088199785689825</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -1340,19 +1340,19 @@
         <v>15251</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9030</v>
+        <v>8979</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24425</v>
+        <v>23844</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05862947412221597</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03471419455914116</v>
+        <v>0.03451776031372414</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09389400487702143</v>
+        <v>0.09166405300879195</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -1361,19 +1361,19 @@
         <v>39751</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28491</v>
+        <v>28616</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53166</v>
+        <v>52969</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04468645230309696</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03202857747493598</v>
+        <v>0.03216928321226043</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05976819728113381</v>
+        <v>0.05954657357745671</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>401698</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>374830</v>
+        <v>377852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>426645</v>
+        <v>427637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6382090463807489</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5955218076591825</v>
+        <v>0.6003224453569526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6778438312685499</v>
+        <v>0.679420206108627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>151</v>
@@ -1411,19 +1411,19 @@
         <v>162535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145790</v>
+        <v>145562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176928</v>
+        <v>178802</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.624825381786608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5604526730108672</v>
+        <v>0.5595780841987543</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6801563473817933</v>
+        <v>0.6873589675975903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>531</v>
@@ -1432,19 +1432,19 @@
         <v>564234</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>532300</v>
+        <v>534953</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>593995</v>
+        <v>593847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6342952612674662</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5983964403953111</v>
+        <v>0.6013792324517225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6677526249007274</v>
+        <v>0.6675858324016251</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>203217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>176303</v>
+        <v>180113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>227447</v>
+        <v>229125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3228669813287192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2801064256208963</v>
+        <v>0.2861585960484799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3613627571405376</v>
+        <v>0.3640292293004135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -1482,19 +1482,19 @@
         <v>82343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67026</v>
+        <v>67822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97070</v>
+        <v>97879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.316545144091176</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2576652681598122</v>
+        <v>0.2607233313748463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3731597857055189</v>
+        <v>0.3762702520544041</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>266</v>
@@ -1503,19 +1503,19 @@
         <v>285560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>257500</v>
+        <v>256038</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>313764</v>
+        <v>314447</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3210182864294369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2894740514276499</v>
+        <v>0.2878306074184601</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3527246076771466</v>
+        <v>0.3534928080806066</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>54062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39413</v>
+        <v>40471</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68358</v>
+        <v>69870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04664505268930654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03400618731724275</v>
+        <v>0.03491857569190067</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05897995717797028</v>
+        <v>0.06028436704786667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1628,19 +1628,19 @@
         <v>35904</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25097</v>
+        <v>25363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50982</v>
+        <v>50384</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04683210169380608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03273580806975995</v>
+        <v>0.03308276764003693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06649857678580491</v>
+        <v>0.06571884823163757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1649,19 +1649,19 @@
         <v>89966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70594</v>
+        <v>74187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110793</v>
+        <v>112545</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04671952170929972</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03665932481872757</v>
+        <v>0.0385252338577392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05753502892428683</v>
+        <v>0.0584448358714967</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>792984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>760639</v>
+        <v>760480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>825694</v>
+        <v>825907</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6841911224745355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6562837844446896</v>
+        <v>0.6561467853537066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7124139416317661</v>
+        <v>0.7125976894564228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>452</v>
@@ -1699,19 +1699,19 @@
         <v>490126</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461164</v>
+        <v>461415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>516761</v>
+        <v>516596</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6393026915233264</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.601525277539108</v>
+        <v>0.6018530636750129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6740451974570963</v>
+        <v>0.6738291398447134</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1192</v>
@@ -1720,19 +1720,19 @@
         <v>1283110</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1237562</v>
+        <v>1238202</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1327595</v>
+        <v>1322892</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6663198834860591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6426667546446438</v>
+        <v>0.6429988661936666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6894209335775606</v>
+        <v>0.6869787884383664</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>311963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>282585</v>
+        <v>280041</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>343455</v>
+        <v>343453</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2691638248361579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2438158252440442</v>
+        <v>0.2416214793646143</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2963353260306525</v>
+        <v>0.2963337103023</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>228</v>
@@ -1770,19 +1770,19 @@
         <v>240627</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>215954</v>
+        <v>217121</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>268916</v>
+        <v>268363</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3138652067828675</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2816825865394522</v>
+        <v>0.2832049388992744</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3507649958100568</v>
+        <v>0.3500433505139839</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>520</v>
@@ -1791,19 +1791,19 @@
         <v>552591</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>511619</v>
+        <v>512454</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>595112</v>
+        <v>590773</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2869605948046413</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.265683809184813</v>
+        <v>0.2661179111834883</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3090418852067162</v>
+        <v>0.3067889803029429</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>24931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16240</v>
+        <v>15799</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37579</v>
+        <v>35047</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04882693352384497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03180540489735582</v>
+        <v>0.0309418421453283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07359785516990246</v>
+        <v>0.06864007575564661</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1916,19 +1916,19 @@
         <v>30402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21118</v>
+        <v>20804</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43487</v>
+        <v>42960</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03992242012668495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02773168394436653</v>
+        <v>0.02731958597711978</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05710577065142772</v>
+        <v>0.05641362195498209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -1937,19 +1937,19 @@
         <v>55333</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41273</v>
+        <v>41460</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>70738</v>
+        <v>71793</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04349646867271556</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03244450607952859</v>
+        <v>0.03259165896267368</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05560668974277037</v>
+        <v>0.05643574633591728</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>377366</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>358430</v>
+        <v>355311</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>397094</v>
+        <v>397785</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7390696606693359</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7019831019363088</v>
+        <v>0.6958758157885195</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7777063552717033</v>
+        <v>0.7790609336729077</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>488</v>
@@ -1987,19 +1987,19 @@
         <v>532171</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>503884</v>
+        <v>506357</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>557485</v>
+        <v>557990</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6988253289250478</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6616806717588212</v>
+        <v>0.6649271846613966</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7320673461972329</v>
+        <v>0.7327295409573186</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>849</v>
@@ -2008,19 +2008,19 @@
         <v>909537</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>874482</v>
+        <v>875099</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>940891</v>
+        <v>939290</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7149783952343781</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6874224572897309</v>
+        <v>0.6879073075978627</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7396253390955768</v>
+        <v>0.738366690823119</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>108299</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89708</v>
+        <v>90969</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126570</v>
+        <v>129019</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2121034058068192</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1756935280843951</v>
+        <v>0.1781630744231307</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2478867495661382</v>
+        <v>0.2526825692016648</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>187</v>
@@ -2058,19 +2058,19 @@
         <v>198949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>174158</v>
+        <v>173942</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>225910</v>
+        <v>223297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2612522509482673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2286976007702607</v>
+        <v>0.2284129683829106</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2966563977150192</v>
+        <v>0.2932247593904782</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>290</v>
@@ -2079,19 +2079,19 @@
         <v>307248</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>278604</v>
+        <v>279271</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>344654</v>
+        <v>341845</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2415251360929063</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2190078099840358</v>
+        <v>0.2195325639126938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.270929284491231</v>
+        <v>0.268721332713194</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>10763</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5767</v>
+        <v>4985</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19824</v>
+        <v>19886</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04033018104582933</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02160912071106634</v>
+        <v>0.01867703037225769</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07427989482064355</v>
+        <v>0.07451141253390189</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -2204,19 +2204,19 @@
         <v>49872</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36968</v>
+        <v>37881</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>65464</v>
+        <v>65995</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04495628068880936</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03332438608243666</v>
+        <v>0.03414667701363827</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05901078654260025</v>
+        <v>0.05948945019256731</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -2225,19 +2225,19 @@
         <v>60636</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45972</v>
+        <v>45814</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>78690</v>
+        <v>76974</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04405917807585348</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03340435090444018</v>
+        <v>0.03328918059877852</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05717814390097857</v>
+        <v>0.05593071518057671</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>146959</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>128436</v>
+        <v>129768</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160281</v>
+        <v>162285</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5506499043317805</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4812473086828193</v>
+        <v>0.4862371479938012</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6005693450891672</v>
+        <v>0.6080795180242318</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>714</v>
@@ -2275,19 +2275,19 @@
         <v>763357</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>731108</v>
+        <v>729837</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>795847</v>
+        <v>793182</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6881113929116004</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6590410400044543</v>
+        <v>0.6578951504291485</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7173983596390613</v>
+        <v>0.7149960413610802</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>861</v>
@@ -2296,19 +2296,19 @@
         <v>910316</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>874572</v>
+        <v>874170</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>945712</v>
+        <v>945403</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6614545826172324</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6354821767713041</v>
+        <v>0.6351905310841436</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6871745697229799</v>
+        <v>0.6869500096300442</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>109160</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95185</v>
+        <v>93940</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127360</v>
+        <v>126296</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4090199146223902</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3566561246238116</v>
+        <v>0.3519905033779188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4772136032801936</v>
+        <v>0.473229004549831</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>283</v>
@@ -2346,19 +2346,19 @@
         <v>296122</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>264027</v>
+        <v>268562</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>325897</v>
+        <v>325115</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2669323263995902</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.238001094099437</v>
+        <v>0.2420889312862191</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2937722785444242</v>
+        <v>0.2930681599679638</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>391</v>
@@ -2367,19 +2367,19 @@
         <v>405282</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>373702</v>
+        <v>369917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>443175</v>
+        <v>437139</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.294486239306914</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2715395928593926</v>
+        <v>0.2687896000327174</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3220204519343428</v>
+        <v>0.317634723164153</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>142116</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>119442</v>
+        <v>116667</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>168816</v>
+        <v>166735</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04153116557997032</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03490521082450799</v>
+        <v>0.03409410849455433</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04933383517348198</v>
+        <v>0.04872568725933617</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>146</v>
@@ -2492,19 +2492,19 @@
         <v>159575</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>135808</v>
+        <v>133707</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>185109</v>
+        <v>186670</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04494921905677304</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0382543384997685</v>
+        <v>0.03766259105696159</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05214153892982374</v>
+        <v>0.05258114286987008</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>277</v>
@@ -2513,19 +2513,19 @@
         <v>301691</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>266706</v>
+        <v>267188</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>338267</v>
+        <v>336229</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04327162121576799</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03825367609129504</v>
+        <v>0.03832283905084088</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04851767505106422</v>
+        <v>0.04822540128010593</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>2152661</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2090881</v>
+        <v>2098267</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2211310</v>
+        <v>2210308</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.629081765850749</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.611027587540642</v>
+        <v>0.6131859981246006</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6462208362478773</v>
+        <v>0.6459282794863269</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2112</v>
@@ -2563,19 +2563,19 @@
         <v>2288997</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2233077</v>
+        <v>2235310</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2351261</v>
+        <v>2350567</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6447652167283979</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6290135275832227</v>
+        <v>0.6296425368232518</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6623038466605695</v>
+        <v>0.6621082874121695</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4129</v>
@@ -2584,19 +2584,19 @@
         <v>4441658</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4350575</v>
+        <v>4361274</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4528976</v>
+        <v>4524763</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6370677001417167</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6240035661695715</v>
+        <v>0.625538224652012</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6495916440020907</v>
+        <v>0.6489874744882849</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>1127133</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1071173</v>
+        <v>1071150</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1181854</v>
+        <v>1181586</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3293870685692806</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3130337761326192</v>
+        <v>0.313027071570348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3453783208648368</v>
+        <v>0.3453002210616584</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1032</v>
@@ -2634,19 +2634,19 @@
         <v>1101553</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1048666</v>
+        <v>1043785</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1157771</v>
+        <v>1154427</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3102855642148291</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2953884378623675</v>
+        <v>0.2940136953796353</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3261212582964974</v>
+        <v>0.3251792259215165</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2089</v>
@@ -2655,19 +2655,19 @@
         <v>2228685</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2147782</v>
+        <v>2150183</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2321368</v>
+        <v>2310224</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3196606786425154</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3080567085873577</v>
+        <v>0.3084010503514272</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3329541778317803</v>
+        <v>0.33135580997478</v>
       </c>
     </row>
     <row r="31">
@@ -3001,19 +3001,19 @@
         <v>43450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31384</v>
+        <v>31570</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59851</v>
+        <v>59341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1012593076423338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07314118955190192</v>
+        <v>0.07357393817041653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1394831035424929</v>
+        <v>0.1382954172699594</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -3022,19 +3022,19 @@
         <v>33393</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23979</v>
+        <v>23661</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45772</v>
+        <v>45390</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09621814383950229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06909334769066011</v>
+        <v>0.06817559928137508</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.131887227906203</v>
+        <v>0.1307874104467141</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -3043,19 +3043,19 @@
         <v>76843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60224</v>
+        <v>60035</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94719</v>
+        <v>95095</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09900514596991841</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0775939305329551</v>
+        <v>0.07735027110854086</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1220377106189034</v>
+        <v>0.1225223541660472</v>
       </c>
     </row>
     <row r="5">
@@ -3072,19 +3072,19 @@
         <v>202047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>178205</v>
+        <v>182053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223789</v>
+        <v>224200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4708713530728411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4153076131297714</v>
+        <v>0.4242754997094275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5215403652670255</v>
+        <v>0.5224989192083933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -3093,19 +3093,19 @@
         <v>143194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>125430</v>
+        <v>125803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>162413</v>
+        <v>163369</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4125977573371962</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3614125899188093</v>
+        <v>0.362486285824249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4679745800085472</v>
+        <v>0.4707295625312866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>329</v>
@@ -3114,19 +3114,19 @@
         <v>345241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>314007</v>
+        <v>315774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>373200</v>
+        <v>376797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4448142537285709</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4045713811104731</v>
+        <v>0.406847709691493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4808361051036418</v>
+        <v>0.4854714802220628</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>183595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>161786</v>
+        <v>162254</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>205007</v>
+        <v>203026</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4278693392848251</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3770426194324031</v>
+        <v>0.3781332179996671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4777697749728837</v>
+        <v>0.4731525106414695</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>159</v>
@@ -3164,19 +3164,19 @@
         <v>170468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>150618</v>
+        <v>151673</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>188267</v>
+        <v>189946</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4911840988233015</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4339880698283906</v>
+        <v>0.4370298431087504</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5424700398512546</v>
+        <v>0.5473077039686222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>330</v>
@@ -3185,19 +3185,19 @@
         <v>354063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>327725</v>
+        <v>324747</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>383409</v>
+        <v>384583</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4561806003015108</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4222466047974799</v>
+        <v>0.4184089867025965</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4939901657998149</v>
+        <v>0.4955022865012488</v>
       </c>
     </row>
     <row r="7">
@@ -3289,19 +3289,19 @@
         <v>40870</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30284</v>
+        <v>29772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54815</v>
+        <v>55000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1083430597858886</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08027925123987459</v>
+        <v>0.07892354162509133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1453097439246605</v>
+        <v>0.1458017332239305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -3310,19 +3310,19 @@
         <v>34490</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24324</v>
+        <v>25079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47131</v>
+        <v>46993</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09264667032420446</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06533908751088162</v>
+        <v>0.0673673934882902</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1266026553527349</v>
+        <v>0.1262327822328416</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -3331,19 +3331,19 @@
         <v>75360</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58150</v>
+        <v>59206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>91030</v>
+        <v>93159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1005467366988343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07758566564869572</v>
+        <v>0.07899408409267131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.12145368712759</v>
+        <v>0.1242951417095002</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>194771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>174717</v>
+        <v>174250</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>215435</v>
+        <v>213493</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5163234280420216</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.463161502023672</v>
+        <v>0.4619239881911874</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.571101952856487</v>
+        <v>0.5659548871925991</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>173</v>
@@ -3381,19 +3381,19 @@
         <v>181335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>159688</v>
+        <v>160474</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>202061</v>
+        <v>199493</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4871033600307506</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4289539318974835</v>
+        <v>0.4310666272023302</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5427753660425079</v>
+        <v>0.5358775836547791</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>357</v>
@@ -3402,19 +3402,19 @@
         <v>376107</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>347892</v>
+        <v>346732</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>406136</v>
+        <v>402709</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.501809957195897</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4641652590853337</v>
+        <v>0.4626173177400655</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5418758490578749</v>
+        <v>0.5373038405328583</v>
       </c>
     </row>
     <row r="10">
@@ -3431,19 +3431,19 @@
         <v>141586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120960</v>
+        <v>122450</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160805</v>
+        <v>161963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3753335121720899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3206553967906173</v>
+        <v>0.3246058137178113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4262813677692052</v>
+        <v>0.4293515421522255</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>146</v>
@@ -3452,19 +3452,19 @@
         <v>156448</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137180</v>
+        <v>138044</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177864</v>
+        <v>176585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.420249969645045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3684939131345107</v>
+        <v>0.3708129341144348</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4777789186208405</v>
+        <v>0.4743416090052976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>279</v>
@@ -3473,19 +3473,19 @@
         <v>298034</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>271426</v>
+        <v>272231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>326178</v>
+        <v>326046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3976433061052687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3621430956125782</v>
+        <v>0.3632169671295647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4351943807972064</v>
+        <v>0.4350183737951136</v>
       </c>
     </row>
     <row r="11">
@@ -3577,19 +3577,19 @@
         <v>78956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>62739</v>
+        <v>61269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97719</v>
+        <v>95781</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1512813484123245</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1202085508043917</v>
+        <v>0.1173938228156142</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1872312272823743</v>
+        <v>0.1835190585216346</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -3598,19 +3598,19 @@
         <v>14291</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8088</v>
+        <v>8133</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22758</v>
+        <v>22518</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0860241189173331</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04868704890247438</v>
+        <v>0.04895999041989557</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.136992262667245</v>
+        <v>0.1355495478289329</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -3619,19 +3619,19 @@
         <v>93246</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>74086</v>
+        <v>75639</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>113816</v>
+        <v>112639</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1355253325113283</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.107677718767936</v>
+        <v>0.1099341936624645</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1654212611128054</v>
+        <v>0.1637112083587011</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>274846</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252351</v>
+        <v>251190</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>296699</v>
+        <v>296664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.526612185935099</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4835103914546208</v>
+        <v>0.4812854872367591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5684834754704357</v>
+        <v>0.5684164207072833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -3669,19 +3669,19 @@
         <v>92170</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79642</v>
+        <v>79428</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105731</v>
+        <v>105394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5548321040709705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4794139751570687</v>
+        <v>0.4781303951767841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6364620371224429</v>
+        <v>0.6344342807026546</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>353</v>
@@ -3690,19 +3690,19 @@
         <v>367016</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>338435</v>
+        <v>339719</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>391378</v>
+        <v>395184</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5334257372046595</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4918855272259059</v>
+        <v>0.4937517161362533</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5688340612360501</v>
+        <v>0.5743652166477872</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>168112</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147405</v>
+        <v>146518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189686</v>
+        <v>189280</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3221064656525766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.282430724060426</v>
+        <v>0.2807316989510044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3634438858557206</v>
+        <v>0.3626646334666298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -3740,19 +3740,19 @@
         <v>59662</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47214</v>
+        <v>47237</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72294</v>
+        <v>73587</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3591437770116965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2842128072494493</v>
+        <v>0.2843487629700924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.43518113994543</v>
+        <v>0.4429685180349316</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -3761,19 +3761,19 @@
         <v>227774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>205208</v>
+        <v>203922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>255724</v>
+        <v>255690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3310489302840123</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2982516108177149</v>
+        <v>0.296383187607549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3716725907958981</v>
+        <v>0.3716231001864808</v>
       </c>
     </row>
     <row r="15">
@@ -3865,19 +3865,19 @@
         <v>187940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164244</v>
+        <v>162784</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>214071</v>
+        <v>213064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1634773351658685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.142865905101728</v>
+        <v>0.1415957089702674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1862075809696126</v>
+        <v>0.1853312214989431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -3886,19 +3886,19 @@
         <v>126230</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106185</v>
+        <v>106251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>146277</v>
+        <v>147211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1528437055338197</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1285729219358205</v>
+        <v>0.1286526148145223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1771169663181884</v>
+        <v>0.1782484551298134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>297</v>
@@ -3907,19 +3907,19 @@
         <v>314170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>280279</v>
+        <v>279810</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>348120</v>
+        <v>348617</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1590318809798198</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.141876476579467</v>
+        <v>0.1416389220414341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1762173909500172</v>
+        <v>0.1764690808811573</v>
       </c>
     </row>
     <row r="17">
@@ -3936,19 +3936,19 @@
         <v>625997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>592815</v>
+        <v>594120</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>658655</v>
+        <v>660932</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5445169904795927</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5156535172162724</v>
+        <v>0.5167887510464001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5729241796167815</v>
+        <v>0.5749042382563346</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>421</v>
@@ -3957,19 +3957,19 @@
         <v>432656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>404339</v>
+        <v>401427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>460692</v>
+        <v>459057</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5238749110606509</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4895879538345658</v>
+        <v>0.4860623257023233</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5578219623221031</v>
+        <v>0.5558430986256521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1032</v>
@@ -3978,19 +3978,19 @@
         <v>1058653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1010430</v>
+        <v>1014456</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1100188</v>
+        <v>1105068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5358874423820064</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5114771061756729</v>
+        <v>0.5135148905255158</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5569120315335365</v>
+        <v>0.5593827449570059</v>
       </c>
     </row>
     <row r="18">
@@ -4007,19 +4007,19 @@
         <v>335701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>307172</v>
+        <v>307074</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>369897</v>
+        <v>368508</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2920056743545388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.267190113989411</v>
+        <v>0.2671046195903604</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3217510702705424</v>
+        <v>0.3205426515016682</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>254</v>
@@ -4028,19 +4028,19 @@
         <v>266990</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>240407</v>
+        <v>242963</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>294281</v>
+        <v>296832</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3232813834055295</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2910934004645168</v>
+        <v>0.2941877689210202</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3563257217666377</v>
+        <v>0.3594149094143914</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>572</v>
@@ -4049,19 +4049,19 @@
         <v>602691</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>562816</v>
+        <v>565909</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>648169</v>
+        <v>647087</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3050806766381738</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2848957614652652</v>
+        <v>0.2864615293139856</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3281015630876216</v>
+        <v>0.3275538232269012</v>
       </c>
     </row>
     <row r="19">
@@ -4153,19 +4153,19 @@
         <v>131947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110985</v>
+        <v>112357</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153682</v>
+        <v>152552</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2125751967828595</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1788046025186524</v>
+        <v>0.1810149381046239</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2475920374955616</v>
+        <v>0.2457709605130113</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -4174,19 +4174,19 @@
         <v>129549</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111770</v>
+        <v>111172</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>151510</v>
+        <v>153287</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1754820521106911</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1514001525020563</v>
+        <v>0.1505892051673564</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2052302384958042</v>
+        <v>0.2076379057618022</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>244</v>
@@ -4195,19 +4195,19 @@
         <v>261495</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>228751</v>
+        <v>235184</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>289937</v>
+        <v>292963</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1924244950693021</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.168329428595156</v>
+        <v>0.1730633109382456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2133533646319201</v>
+        <v>0.2155802960839129</v>
       </c>
     </row>
     <row r="21">
@@ -4224,19 +4224,19 @@
         <v>359824</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>333950</v>
+        <v>334502</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>385764</v>
+        <v>382691</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5797009380153084</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5380163854609815</v>
+        <v>0.5389053077426126</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6214916913071675</v>
+        <v>0.6165420062458922</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>420</v>
@@ -4245,19 +4245,19 @@
         <v>439556</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>409730</v>
+        <v>411797</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>466236</v>
+        <v>468701</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5954080719167612</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5550066091864573</v>
+        <v>0.557805798855132</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6315477455524102</v>
+        <v>0.6348865599758521</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>773</v>
@@ -4266,19 +4266,19 @@
         <v>799380</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>764039</v>
+        <v>761627</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>837004</v>
+        <v>835265</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5882337753581763</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5622273963737717</v>
+        <v>0.5604523550094953</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6159194526317402</v>
+        <v>0.6146401762418681</v>
       </c>
     </row>
     <row r="22">
@@ -4295,19 +4295,19 @@
         <v>128935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109231</v>
+        <v>108348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>149906</v>
+        <v>149407</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.207723865201832</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.175978481667309</v>
+        <v>0.1745556752828433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2415089642702968</v>
+        <v>0.2407044491711841</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>157</v>
@@ -4316,19 +4316,19 @@
         <v>169139</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147052</v>
+        <v>146603</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>191825</v>
+        <v>193906</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2291098759725478</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1991918104898243</v>
+        <v>0.1985837697542822</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2598391316815344</v>
+        <v>0.2626582258354735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>279</v>
@@ -4337,19 +4337,19 @@
         <v>298074</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>264967</v>
+        <v>269113</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>328173</v>
+        <v>329518</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2193417295725216</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1949795310349079</v>
+        <v>0.1980302305705077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.241490028378119</v>
+        <v>0.2424796092227355</v>
       </c>
     </row>
     <row r="23">
@@ -4441,19 +4441,19 @@
         <v>46045</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35255</v>
+        <v>34631</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60644</v>
+        <v>59779</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1603530670918205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1227772425594055</v>
+        <v>0.1206045392187432</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2111948772934965</v>
+        <v>0.2081845089407765</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>163</v>
@@ -4462,19 +4462,19 @@
         <v>176842</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>154849</v>
+        <v>153839</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>205140</v>
+        <v>203516</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1634365101986063</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.143110251284132</v>
+        <v>0.1421771936568336</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1895889911510099</v>
+        <v>0.1880878512180498</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -4483,19 +4483,19 @@
         <v>222887</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>196031</v>
+        <v>194820</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>251686</v>
+        <v>253485</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1627898441704526</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.143175088020821</v>
+        <v>0.14229055295445</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1838238539965865</v>
+        <v>0.1851377618628239</v>
       </c>
     </row>
     <row r="25">
@@ -4512,19 +4512,19 @@
         <v>136730</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118724</v>
+        <v>119492</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>153425</v>
+        <v>154043</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4761696765745546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4134618858078035</v>
+        <v>0.4161398581847944</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5343107840171768</v>
+        <v>0.5364651802917266</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>504</v>
@@ -4533,19 +4533,19 @@
         <v>549277</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>516902</v>
+        <v>516270</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>585190</v>
+        <v>581787</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5076384548668725</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4777168690228413</v>
+        <v>0.4771330732862608</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5408280809887168</v>
+        <v>0.5376838026871357</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>635</v>
@@ -4554,19 +4554,19 @@
         <v>686007</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>649563</v>
+        <v>646453</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>725028</v>
+        <v>723174</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5010387579811543</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4744209049238675</v>
+        <v>0.4721496144615808</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5295383264371788</v>
+        <v>0.5281839428141349</v>
       </c>
     </row>
     <row r="26">
@@ -4583,19 +4583,19 @@
         <v>104371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90060</v>
+        <v>88596</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>123329</v>
+        <v>122109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3634772563336248</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3136387271811671</v>
+        <v>0.3085394089398573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4295021160860777</v>
+        <v>0.42525291571215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>325</v>
@@ -4604,19 +4604,19 @@
         <v>355905</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>323034</v>
+        <v>322801</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>386785</v>
+        <v>386892</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3289250349345211</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2985460158217675</v>
+        <v>0.2983300736838482</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3574635567544907</v>
+        <v>0.3575624461036049</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>424</v>
@@ -4625,19 +4625,19 @@
         <v>460276</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>424166</v>
+        <v>425137</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>494946</v>
+        <v>496980</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3361713978483932</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3097981351400936</v>
+        <v>0.3105071555179894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3614931267257371</v>
+        <v>0.3629791406234977</v>
       </c>
     </row>
     <row r="27">
@@ -4729,19 +4729,19 @@
         <v>529206</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>485525</v>
+        <v>487944</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>580888</v>
+        <v>575556</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1563053222547814</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1434037242027911</v>
+        <v>0.1441181226766264</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1715699700811472</v>
+        <v>0.1699949995005115</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>486</v>
@@ -4750,19 +4750,19 @@
         <v>514794</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>472615</v>
+        <v>473096</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>555784</v>
+        <v>561205</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1457681832036503</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1338247972231892</v>
+        <v>0.1339608784486901</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1573748036385123</v>
+        <v>0.1589097448095732</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>970</v>
@@ -4771,19 +4771,19 @@
         <v>1044001</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>984274</v>
+        <v>984780</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1105282</v>
+        <v>1106621</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1509256481479006</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1422912623643159</v>
+        <v>0.1423643870582116</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1597847579575945</v>
+        <v>0.1599783280020343</v>
       </c>
     </row>
     <row r="29">
@@ -4800,19 +4800,19 @@
         <v>1794216</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1736765</v>
+        <v>1734923</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1853487</v>
+        <v>1853655</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5299358727494536</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5129674676705118</v>
+        <v>0.5124234494947669</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5474422987542477</v>
+        <v>0.5474918085542417</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1744</v>
@@ -4821,19 +4821,19 @@
         <v>1838190</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1780468</v>
+        <v>1770979</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1895046</v>
+        <v>1893283</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.520498257342445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5041538585930716</v>
+        <v>0.5014669295409357</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5365976723281624</v>
+        <v>0.5360983380517396</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3479</v>
@@ -4842,19 +4842,19 @@
         <v>3632405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3544951</v>
+        <v>3544604</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3716390</v>
+        <v>3713024</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5251175539449454</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5124747260876704</v>
+        <v>0.512424595218699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5372588578113372</v>
+        <v>0.5367722066792434</v>
       </c>
     </row>
     <row r="30">
@@ -4871,19 +4871,19 @@
         <v>1062300</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1009331</v>
+        <v>1011781</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1122560</v>
+        <v>1117804</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.313758804995765</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2981139186073009</v>
+        <v>0.298837446441642</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3315571210032804</v>
+        <v>0.3301524215660614</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1096</v>
@@ -4892,19 +4892,19 @@
         <v>1178612</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1125995</v>
+        <v>1117190</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1238588</v>
+        <v>1235866</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3337335594539046</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3188345306913246</v>
+        <v>0.316341275000524</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3507162031344462</v>
+        <v>0.3499454811823305</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2101</v>
@@ -4913,19 +4913,19 @@
         <v>2240912</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2162243</v>
+        <v>2171155</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2320266</v>
+        <v>2328938</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.323956797907154</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3125840150928557</v>
+        <v>0.3138723094381825</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3354284934810504</v>
+        <v>0.3366822389727873</v>
       </c>
     </row>
     <row r="31">
@@ -5259,19 +5259,19 @@
         <v>53468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39560</v>
+        <v>39471</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70191</v>
+        <v>72049</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09710568558636458</v>
+        <v>0.09710568558636457</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07184578416009156</v>
+        <v>0.07168454063967727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1274758736628148</v>
+        <v>0.1308508882041699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -5280,19 +5280,19 @@
         <v>59775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46796</v>
+        <v>45958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78015</v>
+        <v>75598</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1223876416074079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09581174403581404</v>
+        <v>0.09409735091233115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1597317451018056</v>
+        <v>0.1547835649834898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -5301,19 +5301,19 @@
         <v>113244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93915</v>
+        <v>94042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136444</v>
+        <v>135203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1089898396656505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09038726795817729</v>
+        <v>0.09050943137460771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.131318511972566</v>
+        <v>0.1301246025510376</v>
       </c>
     </row>
     <row r="5">
@@ -5330,19 +5330,19 @@
         <v>286212</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260755</v>
+        <v>258351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309486</v>
+        <v>310566</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5198019148476628</v>
+        <v>0.5198019148476629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4735687200377481</v>
+        <v>0.4692017684050134</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5620709779694532</v>
+        <v>0.564032160018664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>349</v>
@@ -5351,19 +5351,19 @@
         <v>245328</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>225476</v>
+        <v>226064</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265493</v>
+        <v>265740</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5022980879309528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4616521625024868</v>
+        <v>0.4628567979240208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5435855721643891</v>
+        <v>0.5440911426680654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>633</v>
@@ -5372,19 +5372,19 @@
         <v>531540</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>499972</v>
+        <v>498650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561075</v>
+        <v>563025</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.511573984386816</v>
+        <v>0.5115739843868159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4811916140111941</v>
+        <v>0.4799189521653871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5399990163778237</v>
+        <v>0.5418762236391518</v>
       </c>
     </row>
     <row r="6">
@@ -5401,19 +5401,19 @@
         <v>210938</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>187938</v>
+        <v>188398</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>234092</v>
+        <v>235866</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3830923995659726</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3413210748111953</v>
+        <v>0.3421566589683891</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4251442189295472</v>
+        <v>0.4283653848976754</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>267</v>
@@ -5422,19 +5422,19 @@
         <v>183308</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165211</v>
+        <v>165450</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>202711</v>
+        <v>201203</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3753142704616394</v>
+        <v>0.3753142704616393</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3382613900909863</v>
+        <v>0.338751541008922</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4150408541011893</v>
+        <v>0.4119542651817446</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>490</v>
@@ -5443,19 +5443,19 @@
         <v>394245</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>366306</v>
+        <v>365088</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>424282</v>
+        <v>426590</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3794361759475336</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.352546819619175</v>
+        <v>0.3513744306148879</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.408344937454371</v>
+        <v>0.4105659722809312</v>
       </c>
     </row>
     <row r="7">
@@ -5547,19 +5547,19 @@
         <v>55435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42723</v>
+        <v>41450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73963</v>
+        <v>70944</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1147215949221409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0884147591378357</v>
+        <v>0.08578071053736198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1530659398684265</v>
+        <v>0.1468182103599296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>74</v>
@@ -5568,19 +5568,19 @@
         <v>55788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42718</v>
+        <v>44442</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68810</v>
+        <v>69532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1318430652930444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1009542690333002</v>
+        <v>0.1050273019327642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1626175536936638</v>
+        <v>0.1643234872559377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>122</v>
@@ -5589,19 +5589,19 @@
         <v>111223</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>94176</v>
+        <v>91525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>134659</v>
+        <v>130848</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1227149615733726</v>
+        <v>0.1227149615733727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1039061830140512</v>
+        <v>0.1009812500098026</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1485724811758</v>
+        <v>0.1443677425063515</v>
       </c>
     </row>
     <row r="9">
@@ -5618,19 +5618,19 @@
         <v>289292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>264866</v>
+        <v>266199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>311411</v>
+        <v>310347</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5986845109816648</v>
+        <v>0.5986845109816646</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5481370818677853</v>
+        <v>0.5508941274238122</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6444595061020222</v>
+        <v>0.6422591830786444</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>335</v>
@@ -5639,19 +5639,19 @@
         <v>238660</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>218541</v>
+        <v>220151</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>253449</v>
+        <v>256488</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5640172488516344</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5164707945720822</v>
+        <v>0.520275192519822</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5989676309686761</v>
+        <v>0.6061499611125518</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>630</v>
@@ -5660,19 +5660,19 @@
         <v>527951</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>498171</v>
+        <v>499607</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>554215</v>
+        <v>558942</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5824996780790763</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5496419360141943</v>
+        <v>0.5512270253738798</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6114767295697925</v>
+        <v>0.6166925422319969</v>
       </c>
     </row>
     <row r="10">
@@ -5689,19 +5689,19 @@
         <v>138486</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>117890</v>
+        <v>118821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159434</v>
+        <v>161187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2865938940961944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2439710859833718</v>
+        <v>0.2458988414898304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.329945764720209</v>
+        <v>0.3335730959879625</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -5710,19 +5710,19 @@
         <v>128695</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>112849</v>
+        <v>113427</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147619</v>
+        <v>148045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3041396858553211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.266691308472664</v>
+        <v>0.2680575939889147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.348863768616136</v>
+        <v>0.3498698109719308</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>319</v>
@@ -5731,19 +5731,19 @@
         <v>267180</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>239770</v>
+        <v>240328</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>292831</v>
+        <v>294973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2947853603475512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2645432166967622</v>
+        <v>0.2651588838638411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3230864672846767</v>
+        <v>0.3254492966701425</v>
       </c>
     </row>
     <row r="11">
@@ -5835,19 +5835,19 @@
         <v>48685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36588</v>
+        <v>36821</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66602</v>
+        <v>64511</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1032315304342205</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0775801161338103</v>
+        <v>0.07807553649336151</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1412226625629329</v>
+        <v>0.136787797295767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -5856,19 +5856,19 @@
         <v>26890</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19895</v>
+        <v>19437</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37169</v>
+        <v>36917</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.143414736644744</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1061077858487399</v>
+        <v>0.1036664681467135</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1982392652694475</v>
+        <v>0.1968942134908326</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -5877,19 +5877,19 @@
         <v>75575</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60341</v>
+        <v>60465</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92302</v>
+        <v>94523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1146624804974257</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09154953617558839</v>
+        <v>0.0917378117067305</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1400411423960652</v>
+        <v>0.1434105708789276</v>
       </c>
     </row>
     <row r="13">
@@ -5906,19 +5906,19 @@
         <v>310575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>289353</v>
+        <v>289032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>330872</v>
+        <v>331217</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6585394372840405</v>
+        <v>0.6585394372840404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6135402174024897</v>
+        <v>0.6128603816756933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7015761347840797</v>
+        <v>0.7023079382491216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -5927,19 +5927,19 @@
         <v>117289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104494</v>
+        <v>105104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127825</v>
+        <v>127900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6255503094696732</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5573114749577781</v>
+        <v>0.5605638076595457</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6817440186460997</v>
+        <v>0.6821460243038263</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>518</v>
@@ -5948,19 +5948,19 @@
         <v>427864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>404262</v>
+        <v>401216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>452930</v>
+        <v>452136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6491549926805142</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6133456061019642</v>
+        <v>0.608724805934534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6871851891704251</v>
+        <v>0.6859812103844679</v>
       </c>
     </row>
     <row r="14">
@@ -5977,19 +5977,19 @@
         <v>112352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93214</v>
+        <v>93960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132144</v>
+        <v>132935</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2382290322817391</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1976495889915132</v>
+        <v>0.1992314115289453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2801953832525226</v>
+        <v>0.2818745984836384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -5998,19 +5998,19 @@
         <v>43318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34241</v>
+        <v>34200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54292</v>
+        <v>53541</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2310349538855828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1826240782985148</v>
+        <v>0.1824050210965328</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2895629338625356</v>
+        <v>0.285554106565921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>178</v>
@@ -6019,19 +6019,19 @@
         <v>155670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133747</v>
+        <v>134921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>177236</v>
+        <v>178227</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.23618252682206</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2029207306006831</v>
+        <v>0.2047027517419231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2689024734461736</v>
+        <v>0.2704054598395557</v>
       </c>
     </row>
     <row r="15">
@@ -6123,19 +6123,19 @@
         <v>142499</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118223</v>
+        <v>119992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169420</v>
+        <v>169402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1260210407656875</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1045524213226045</v>
+        <v>0.1061169122560804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1498292220180027</v>
+        <v>0.1498125069773007</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -6144,19 +6144,19 @@
         <v>113731</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97125</v>
+        <v>96430</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132247</v>
+        <v>131970</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1320594445433132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1127772298916817</v>
+        <v>0.1119700620393289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1535596260522331</v>
+        <v>0.1532373087060401</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>286</v>
@@ -6165,19 +6165,19 @@
         <v>256230</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>225940</v>
+        <v>227269</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>285325</v>
+        <v>288952</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1286316957466557</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1134255638349698</v>
+        <v>0.1140927678374283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1432375399321536</v>
+        <v>0.1450582608722619</v>
       </c>
     </row>
     <row r="17">
@@ -6194,19 +6194,19 @@
         <v>760465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>724000</v>
+        <v>724658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>795323</v>
+        <v>793294</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6725272176595062</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6402787676819137</v>
+        <v>0.6408605124319596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7033544049172418</v>
+        <v>0.7015598586313926</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>790</v>
@@ -6215,19 +6215,19 @@
         <v>547976</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>523896</v>
+        <v>522014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>573556</v>
+        <v>572020</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.636285498564237</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6083249681593008</v>
+        <v>0.6061393754709862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6659875823623285</v>
+        <v>0.6642040965720304</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1569</v>
@@ -6236,19 +6236,19 @@
         <v>1308442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1266442</v>
+        <v>1266276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1352812</v>
+        <v>1351468</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6568584038538618</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6357740106174804</v>
+        <v>0.6356906755175055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6791329309162242</v>
+        <v>0.6784583743961873</v>
       </c>
     </row>
     <row r="18">
@@ -6265,19 +6265,19 @@
         <v>227793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>200118</v>
+        <v>200028</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>258768</v>
+        <v>262046</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2014517415748064</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1769771372156478</v>
+        <v>0.1768972782617064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2288449950787794</v>
+        <v>0.2317438223044577</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>279</v>
@@ -6286,19 +6286,19 @@
         <v>199504</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>178309</v>
+        <v>179340</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>221567</v>
+        <v>222361</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2316550568924499</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2070445292999607</v>
+        <v>0.2082415911806344</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2572733950536735</v>
+        <v>0.2581954226013177</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>492</v>
@@ -6307,19 +6307,19 @@
         <v>427297</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>393348</v>
+        <v>389201</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>462531</v>
+        <v>466079</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2145099003994824</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1974670728542036</v>
+        <v>0.1953852670359305</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2321978020616741</v>
+        <v>0.2339789934587723</v>
       </c>
     </row>
     <row r="19">
@@ -6411,19 +6411,19 @@
         <v>97552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>79168</v>
+        <v>79142</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118378</v>
+        <v>121531</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1717570999977894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1393882400307601</v>
+        <v>0.1393438569849862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2084256419812555</v>
+        <v>0.2139764816952877</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -6432,19 +6432,19 @@
         <v>96767</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82753</v>
+        <v>80693</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113088</v>
+        <v>112537</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1164670973421268</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0996002245463828</v>
+        <v>0.09712073118605806</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1361116493694801</v>
+        <v>0.1354482032784889</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>227</v>
@@ -6453,19 +6453,19 @@
         <v>194319</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>171728</v>
+        <v>172301</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>219178</v>
+        <v>221906</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1389166276355187</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1227670203243573</v>
+        <v>0.1231765211490875</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1566881651232858</v>
+        <v>0.1586385619884083</v>
       </c>
     </row>
     <row r="21">
@@ -6482,19 +6482,19 @@
         <v>388357</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>362555</v>
+        <v>362004</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>412096</v>
+        <v>413093</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6837710138592221</v>
+        <v>0.683771013859222</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6383420788954025</v>
+        <v>0.6373706999927562</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7255663744113935</v>
+        <v>0.7273228456143452</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>955</v>
@@ -6503,19 +6503,19 @@
         <v>606898</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>585137</v>
+        <v>584715</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>628836</v>
+        <v>629120</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7304540535375983</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7042632243135287</v>
+        <v>0.7037547068903305</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.756858578083392</v>
+        <v>0.7572003547006195</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1342</v>
@@ -6524,19 +6524,19 @@
         <v>995255</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>961464</v>
+        <v>962934</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1025279</v>
+        <v>1029563</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.7114992287390867</v>
+        <v>0.7114992287390866</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6873425871100115</v>
+        <v>0.6883934371845302</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7329630935276383</v>
+        <v>0.7360260066673514</v>
       </c>
     </row>
     <row r="22">
@@ -6553,19 +6553,19 @@
         <v>82055</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66018</v>
+        <v>64188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105147</v>
+        <v>103495</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1444718861429886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1162370917539682</v>
+        <v>0.1130140122986797</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1851294568606601</v>
+        <v>0.1822213314709183</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>195</v>
@@ -6574,19 +6574,19 @@
         <v>127186</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110172</v>
+        <v>109817</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144984</v>
+        <v>145882</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1530788491202749</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1326013764298576</v>
+        <v>0.1321742057375354</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1745004414028394</v>
+        <v>0.175581752122945</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>268</v>
@@ -6595,19 +6595,19 @@
         <v>209240</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>184755</v>
+        <v>186126</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>236210</v>
+        <v>236926</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1495841436253946</v>
+        <v>0.1495841436253945</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1320795640332348</v>
+        <v>0.1330597004121507</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.168864742949122</v>
+        <v>0.169376226589041</v>
       </c>
     </row>
     <row r="23">
@@ -6699,19 +6699,19 @@
         <v>23721</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12063</v>
+        <v>11374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43186</v>
+        <v>43408</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09999321080221923</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05084779202624255</v>
+        <v>0.04794552605067635</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1820428725544335</v>
+        <v>0.1829803826374313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>117</v>
@@ -6720,19 +6720,19 @@
         <v>89492</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>73695</v>
+        <v>73841</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>108154</v>
+        <v>108729</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1059975051044633</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08728735435336259</v>
+        <v>0.08745996518481289</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1281018085569002</v>
+        <v>0.1287824946256651</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -6741,19 +6741,19 @@
         <v>113213</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>91958</v>
+        <v>92196</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>137201</v>
+        <v>142271</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.104680469773761</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08502734684089128</v>
+        <v>0.08524727613662872</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1268608837895259</v>
+        <v>0.1315489122545235</v>
       </c>
     </row>
     <row r="25">
@@ -6770,19 +6770,19 @@
         <v>158417</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134044</v>
+        <v>134054</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>181210</v>
+        <v>179935</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6677852088371568</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5650422279524568</v>
+        <v>0.565083636964571</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7638628193364473</v>
+        <v>0.7584903953665104</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>853</v>
@@ -6791,19 +6791,19 @@
         <v>606664</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>580725</v>
+        <v>579839</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>631009</v>
+        <v>630846</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7185575389712788</v>
+        <v>0.7185575389712789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6878333611925785</v>
+        <v>0.6867842886091567</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7473922188575111</v>
+        <v>0.7471991715497613</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>928</v>
@@ -6812,19 +6812,19 @@
         <v>765082</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>726372</v>
+        <v>727271</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>797596</v>
+        <v>801412</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7074206843731073</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6716281614277385</v>
+        <v>0.6724596686405266</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7374840300509329</v>
+        <v>0.7410130860048652</v>
       </c>
     </row>
     <row r="26">
@@ -6841,19 +6841,19 @@
         <v>55089</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34664</v>
+        <v>37574</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>78691</v>
+        <v>81229</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2322215803606239</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1461190826591937</v>
+        <v>0.1583875485314422</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3317087225350772</v>
+        <v>0.3424069365788524</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>189</v>
@@ -6862,19 +6862,19 @@
         <v>148125</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124263</v>
+        <v>127665</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169393</v>
+        <v>171102</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1754449559242579</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1471824923814859</v>
+        <v>0.1512115067281429</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2006362007621657</v>
+        <v>0.2026601329304341</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -6883,19 +6883,19 @@
         <v>203214</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>172598</v>
+        <v>173374</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>238106</v>
+        <v>238367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1878988458531318</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1595902052072782</v>
+        <v>0.1603078579324638</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2201613101569482</v>
+        <v>0.2204019272469908</v>
       </c>
     </row>
     <row r="27">
@@ -6987,19 +6987,19 @@
         <v>421360</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>377994</v>
+        <v>378358</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>463663</v>
+        <v>465065</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1224389856468365</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1098376261996033</v>
+        <v>0.1099434472345381</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1347313242320487</v>
+        <v>0.1351388366616992</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>599</v>
@@ -7008,19 +7008,19 @@
         <v>442443</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>410850</v>
+        <v>408224</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>482725</v>
+        <v>479891</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1217043650588462</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.11301395835051</v>
+        <v>0.1122914806391124</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1327847233209978</v>
+        <v>0.1320053838100084</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>960</v>
@@ -7029,19 +7029,19 @@
         <v>863803</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>808976</v>
+        <v>809118</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>929314</v>
+        <v>922464</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1220616059072215</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1143140786016797</v>
+        <v>0.1143341807582283</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1313187141085442</v>
+        <v>0.1303507801105246</v>
       </c>
     </row>
     <row r="29">
@@ -7058,19 +7058,19 @@
         <v>2193318</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2124867</v>
+        <v>2125946</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2252587</v>
+        <v>2252499</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6373348470335</v>
+        <v>0.6373348470335001</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6174442621574967</v>
+        <v>0.6177579433680473</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.654557409140082</v>
+        <v>0.6545317340893629</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3471</v>
@@ -7079,19 +7079,19 @@
         <v>2362815</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2314467</v>
+        <v>2313060</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2417257</v>
+        <v>2413881</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6499476119766614</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6366482338693888</v>
+        <v>0.6362614089398452</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6649232793405629</v>
+        <v>0.6639946438123884</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5620</v>
@@ -7100,19 +7100,19 @@
         <v>4556133</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4471169</v>
+        <v>4471748</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4633494</v>
+        <v>4629032</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6438141126951074</v>
+        <v>0.6438141126951076</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6318081520221895</v>
+        <v>0.6318899066817135</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6547458306371263</v>
+        <v>0.6541152863718349</v>
       </c>
     </row>
     <row r="30">
@@ -7129,19 +7129,19 @@
         <v>826712</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>775199</v>
+        <v>771891</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>887134</v>
+        <v>883595</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2402261673196635</v>
+        <v>0.2402261673196636</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2252576110096733</v>
+        <v>0.2242962653323441</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2577836145312863</v>
+        <v>0.2567553410150043</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1174</v>
@@ -7150,19 +7150,19 @@
         <v>830135</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>786356</v>
+        <v>785305</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>874519</v>
+        <v>878647</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2283480229644924</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2163056577769404</v>
+        <v>0.2160164720033924</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2405568881997614</v>
+        <v>0.2416924528050671</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1963</v>
@@ -7171,19 +7171,19 @@
         <v>1656847</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1584168</v>
+        <v>1592670</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1729854</v>
+        <v>1728191</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.234124281397671</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2238542924881909</v>
+        <v>0.2250555936835898</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.244440683331429</v>
+        <v>0.2442057945306287</v>
       </c>
     </row>
     <row r="31">
